--- a/Excel/report_hokada.xlsx
+++ b/Excel/report_hokada.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>主任教授</t>
     <rPh sb="0" eb="2">
@@ -289,6 +289,472 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>カダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　EFOの観点から13の検討項目を挙げ、これを以下の3点に分類した。</t>
+    <rPh sb="5" eb="7">
+      <t>カンテン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　提案に先立ち、エントリーフォーム最適化（以下、EFO）の観点からNC2の画面を見直し、ユーザ目線で入</t>
+    <rPh sb="1" eb="3">
+      <t>テイアン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サキダ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>サイテキカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カンテン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ミナオ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>メセン</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　一年間を通し、NetCommons3(以下、NC3)のプラグイン開発者としてプロジェクトに参画し、iframeプラグ</t>
+    <rPh sb="1" eb="4">
+      <t>イチネンカン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>カイハツシャ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>サンカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>インの開発を担当している。ユーザがデータを閲覧/編集/削除/登録をする画面（以下、フォーム）を開発</t>
+    <rPh sb="3" eb="5">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タントウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>カイハツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>者の中で先行して開発していたため、その機能をプロトタイプとして実装し、提案する機会を得た。</t>
+    <rPh sb="0" eb="1">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>テイアン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>キカイ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>力がしやすい/エラー内容が把握しやすい等、一般的に『使用性』と総称される分野での改善を図り、機能</t>
+    <rPh sb="10" eb="12">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハアク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>イッパンテキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ソウショウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ブンヤ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>カイゼン</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ハカ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>を実装し、その評価を行った。</t>
+    <rPh sb="7" eb="9">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　　①表示・入力方法最適化　②リアルタイムバリデーション　③サブミットロック</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>サイテキカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　使用性の定量的な評価は、アンケート調査やアクセスログ解析が一般的だが、リリース前で</t>
+    <rPh sb="1" eb="3">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>テイリョウテキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カイセキ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>イッパンテキ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ある現段階で、このような定量的な評価は困難であった。そのため、各検討項目を満たす実装</t>
+    <rPh sb="2" eb="3">
+      <t>ゲン</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>テイリョウテキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コンナン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>が出来たかどうかを評価項目とした。その結果、全ての検討項目を実現できた。</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジツゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>①iframeプラグインにおけるスクロールバーのWebブラウザ依存問題の調査</t>
+    <rPh sb="31" eb="33">
+      <t>イゾン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>②お知らせプラグインの仕様変更に伴うiframeプラグインの改修</t>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>トモナ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カイシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>③掲示板プラグインの開発</t>
+    <rPh sb="1" eb="4">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイハツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　→Firefox以外のブラウザ＋HTML5で発生するiframeタグのscrolling属性の不具合を調査。</t>
+    <rPh sb="9" eb="11">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>フグアイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　→バリデーション実装箇所の変更、MVCの構成変更等の仕様変更に対応。</t>
+    <rPh sb="9" eb="11">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　→12月より着手。画面遷移図/ER図/先行実装作業中。</t>
+    <rPh sb="4" eb="5">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チャクシュ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>センイズ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>センコウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>サギョウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　→iframeプラグイン同様、EFOを考慮した開発を実施。</t>
+    <rPh sb="13" eb="15">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウリョ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　この結果得られた機能は、開発者間で共有し、一部機能はNC3の仕様として含まれている。</t>
+    <rPh sb="3" eb="5">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>カイハツシャ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　①～③を実現するために、AngularJSの双方向データバインディングをメインに調査した。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>し、①～③を実装した。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>その後、iframeプラグイン自体の機能（機能要件）と合わせ、HTML5/AngularJS/Bootstrapを使用</t>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -329,15 +795,21 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -647,11 +1119,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -674,50 +1208,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -730,72 +1220,147 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -828,6 +1393,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -896,6 +1479,118 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="6610350"/>
+          <a:ext cx="2028825" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>双方向データバインディング</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>209150</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="104776" y="5543550"/>
+          <a:ext cx="2676124" cy="1142999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1189,7 +1884,7 @@
   <dimension ref="A1:X45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+      <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="13.5"/>
@@ -1198,77 +1893,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="59"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="41" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="66"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="43"/>
-      <c r="S1" s="48" t="s">
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="50"/>
+      <c r="S1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="T1" s="49"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="48" t="s">
+      <c r="T1" s="56"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="49"/>
-      <c r="X1" s="50"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="57"/>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="60"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="62"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="69"/>
       <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="5"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="46"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="28"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="53"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="10"/>
       <c r="U2" s="1"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="28"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="10"/>
       <c r="X2" s="1"/>
     </row>
     <row r="3" spans="1:24">
-      <c r="E3" s="27"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="37"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="44"/>
       <c r="S3" s="4"/>
       <c r="T3" s="5"/>
       <c r="U3" s="6"/>
@@ -1302,11 +1997,11 @@
       <c r="O6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="S6" s="27"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="29"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="11"/>
       <c r="X6" s="3"/>
     </row>
     <row r="7" spans="1:24" ht="18.75">
@@ -1316,685 +2011,709 @@
     </row>
     <row r="8" spans="1:24" ht="3.6" customHeight="1"/>
     <row r="9" spans="1:24" ht="16.899999999999999" customHeight="1">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="55" t="s">
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="23" t="s">
+      <c r="E9" s="62"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="25"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="20"/>
     </row>
     <row r="10" spans="1:24" ht="16.899999999999999" customHeight="1">
-      <c r="A10" s="53"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="29" t="s">
+      <c r="A10" s="60"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="29"/>
+      <c r="E10" s="11"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="23"/>
     </row>
     <row r="11" spans="1:24" ht="16.899999999999999" customHeight="1">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="28" t="s">
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="28"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="31" t="s">
+      <c r="G11" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="1"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="20"/>
     </row>
     <row r="12" spans="1:24" ht="16.899999999999999" customHeight="1">
-      <c r="A12" s="34"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36" t="s">
+      <c r="A12" s="41"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="8" t="s">
+      <c r="E12" s="43"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="10"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="23"/>
     </row>
     <row r="13" spans="1:24" ht="20.45" customHeight="1">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="40"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="47"/>
     </row>
     <row r="14" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
-      <c r="W14" s="18"/>
-      <c r="X14" s="19"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="17"/>
     </row>
     <row r="15" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A15" s="30"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="13"/>
+      <c r="A15" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="38"/>
     </row>
     <row r="16" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A16" s="30"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="13"/>
+      <c r="A16" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="26"/>
     </row>
     <row r="17" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A17" s="30"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="13"/>
+      <c r="A17" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="26"/>
     </row>
     <row r="18" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A18" s="30"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="13"/>
+      <c r="A18" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="26"/>
     </row>
     <row r="19" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A19" s="30"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="13"/>
+      <c r="A19" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="26"/>
     </row>
     <row r="20" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="13"/>
+      <c r="A20" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="26"/>
     </row>
     <row r="21" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="13"/>
+      <c r="A21" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="34"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="34"/>
+      <c r="X21" s="35"/>
     </row>
     <row r="22" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="13"/>
+      <c r="A22" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="26"/>
     </row>
     <row r="23" spans="1:24" ht="18.75" customHeight="1">
-      <c r="A23" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="13"/>
+      <c r="A23" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="26"/>
     </row>
     <row r="24" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="13"/>
+      <c r="A24" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="26"/>
     </row>
     <row r="25" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="13"/>
+      <c r="A25" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="26"/>
     </row>
     <row r="26" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="13"/>
+      <c r="A26" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="26"/>
     </row>
     <row r="27" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="12"/>
-      <c r="X27" s="13"/>
+      <c r="A27" s="70"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="71"/>
+      <c r="L27" s="71"/>
+      <c r="M27" s="71"/>
+      <c r="N27" s="71"/>
+      <c r="O27" s="71"/>
+      <c r="P27" s="71"/>
+      <c r="Q27" s="71"/>
+      <c r="R27" s="71"/>
+      <c r="S27" s="71"/>
+      <c r="T27" s="71"/>
+      <c r="U27" s="71"/>
+      <c r="V27" s="71"/>
+      <c r="W27" s="71"/>
+      <c r="X27" s="72"/>
     </row>
     <row r="28" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="12"/>
-      <c r="W28" s="12"/>
-      <c r="X28" s="13"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="52"/>
+      <c r="S28" s="52"/>
+      <c r="T28" s="52"/>
+      <c r="U28" s="52"/>
+      <c r="V28" s="52"/>
+      <c r="W28" s="52"/>
+      <c r="X28" s="53"/>
     </row>
     <row r="29" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="51"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="52"/>
+      <c r="T29" s="52"/>
+      <c r="U29" s="52"/>
+      <c r="V29" s="52"/>
+      <c r="W29" s="52"/>
+      <c r="X29" s="53"/>
+    </row>
+    <row r="30" spans="1:24" ht="18.75" customHeight="1">
+      <c r="A30" s="51"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="52"/>
+      <c r="S30" s="52"/>
+      <c r="T30" s="52"/>
+      <c r="U30" s="52"/>
+      <c r="V30" s="52"/>
+      <c r="W30" s="52"/>
+      <c r="X30" s="53"/>
+    </row>
+    <row r="31" spans="1:24" ht="19.149999999999999" customHeight="1">
+      <c r="A31" s="51"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="52"/>
+      <c r="S31" s="52"/>
+      <c r="T31" s="52"/>
+      <c r="U31" s="52"/>
+      <c r="V31" s="52"/>
+      <c r="W31" s="52"/>
+      <c r="X31" s="53"/>
+    </row>
+    <row r="32" spans="1:24" ht="19.149999999999999" customHeight="1">
+      <c r="A32" s="73"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="74"/>
+      <c r="M32" s="74"/>
+      <c r="N32" s="74"/>
+      <c r="O32" s="74"/>
+      <c r="P32" s="74"/>
+      <c r="Q32" s="74"/>
+      <c r="R32" s="74"/>
+      <c r="S32" s="74"/>
+      <c r="T32" s="74"/>
+      <c r="U32" s="74"/>
+      <c r="V32" s="74"/>
+      <c r="W32" s="74"/>
+      <c r="X32" s="75"/>
+    </row>
+    <row r="33" spans="1:24" ht="19.149999999999999" customHeight="1">
+      <c r="A33" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="12"/>
-      <c r="V29" s="12"/>
-      <c r="W29" s="12"/>
-      <c r="X29" s="13"/>
-    </row>
-    <row r="30" spans="1:24" ht="18.75" customHeight="1">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="12"/>
-      <c r="V30" s="12"/>
-      <c r="W30" s="12"/>
-      <c r="X30" s="13"/>
-    </row>
-    <row r="31" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A31" s="11"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="12"/>
-      <c r="W31" s="12"/>
-      <c r="X31" s="13"/>
-    </row>
-    <row r="32" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A32" s="11"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="12"/>
-      <c r="S32" s="12"/>
-      <c r="T32" s="12"/>
-      <c r="U32" s="12"/>
-      <c r="V32" s="12"/>
-      <c r="W32" s="12"/>
-      <c r="X32" s="13"/>
-    </row>
-    <row r="33" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A33" s="11"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="12"/>
-      <c r="U33" s="12"/>
-      <c r="V33" s="12"/>
-      <c r="W33" s="12"/>
-      <c r="X33" s="13"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="34"/>
+      <c r="S33" s="34"/>
+      <c r="T33" s="34"/>
+      <c r="U33" s="34"/>
+      <c r="V33" s="34"/>
+      <c r="W33" s="34"/>
+      <c r="X33" s="35"/>
     </row>
     <row r="34" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A34" s="11"/>
+      <c r="A34" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
@@ -2020,7 +2739,9 @@
       <c r="X34" s="13"/>
     </row>
     <row r="35" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A35" s="11"/>
+      <c r="A35" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
@@ -2046,7 +2767,9 @@
       <c r="X35" s="13"/>
     </row>
     <row r="36" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A36" s="11"/>
+      <c r="A36" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
@@ -2072,7 +2795,9 @@
       <c r="X36" s="13"/>
     </row>
     <row r="37" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A37" s="11"/>
+      <c r="A37" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
@@ -2098,226 +2823,267 @@
       <c r="X37" s="13"/>
     </row>
     <row r="38" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="12"/>
-      <c r="S38" s="12"/>
-      <c r="T38" s="12"/>
-      <c r="U38" s="12"/>
-      <c r="V38" s="12"/>
-      <c r="W38" s="12"/>
-      <c r="X38" s="13"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="31"/>
+      <c r="T38" s="31"/>
+      <c r="U38" s="31"/>
+      <c r="V38" s="31"/>
+      <c r="W38" s="31"/>
+      <c r="X38" s="32"/>
     </row>
     <row r="39" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A39" s="11"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="12"/>
-      <c r="S39" s="12"/>
-      <c r="T39" s="12"/>
-      <c r="U39" s="12"/>
-      <c r="V39" s="12"/>
-      <c r="W39" s="12"/>
-      <c r="X39" s="13"/>
+      <c r="A39" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="25"/>
+      <c r="S39" s="25"/>
+      <c r="T39" s="25"/>
+      <c r="U39" s="25"/>
+      <c r="V39" s="25"/>
+      <c r="W39" s="25"/>
+      <c r="X39" s="26"/>
     </row>
     <row r="40" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A40" s="11"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="12"/>
-      <c r="S40" s="12"/>
-      <c r="T40" s="12"/>
-      <c r="U40" s="12"/>
-      <c r="V40" s="12"/>
-      <c r="W40" s="12"/>
-      <c r="X40" s="13"/>
+      <c r="A40" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="25"/>
+      <c r="P40" s="25"/>
+      <c r="Q40" s="25"/>
+      <c r="R40" s="25"/>
+      <c r="S40" s="25"/>
+      <c r="T40" s="25"/>
+      <c r="U40" s="25"/>
+      <c r="V40" s="25"/>
+      <c r="W40" s="25"/>
+      <c r="X40" s="26"/>
     </row>
     <row r="41" spans="1:24" ht="18.75" customHeight="1">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="12"/>
-      <c r="R41" s="12"/>
-      <c r="S41" s="12"/>
-      <c r="T41" s="12"/>
-      <c r="U41" s="12"/>
-      <c r="V41" s="12"/>
-      <c r="W41" s="12"/>
-      <c r="X41" s="13"/>
+      <c r="A41" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="25"/>
+      <c r="S41" s="25"/>
+      <c r="T41" s="25"/>
+      <c r="U41" s="25"/>
+      <c r="V41" s="25"/>
+      <c r="W41" s="25"/>
+      <c r="X41" s="26"/>
     </row>
     <row r="42" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A42" s="11"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="12"/>
-      <c r="Q42" s="12"/>
-      <c r="R42" s="12"/>
-      <c r="S42" s="12"/>
-      <c r="T42" s="12"/>
-      <c r="U42" s="12"/>
-      <c r="V42" s="12"/>
-      <c r="W42" s="12"/>
-      <c r="X42" s="13"/>
+      <c r="A42" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="25"/>
+      <c r="Q42" s="25"/>
+      <c r="R42" s="25"/>
+      <c r="S42" s="25"/>
+      <c r="T42" s="25"/>
+      <c r="U42" s="25"/>
+      <c r="V42" s="25"/>
+      <c r="W42" s="25"/>
+      <c r="X42" s="26"/>
     </row>
     <row r="43" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A43" s="11"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="12"/>
-      <c r="Q43" s="12"/>
-      <c r="R43" s="12"/>
-      <c r="S43" s="12"/>
-      <c r="T43" s="12"/>
-      <c r="U43" s="12"/>
-      <c r="V43" s="12"/>
-      <c r="W43" s="12"/>
-      <c r="X43" s="13"/>
+      <c r="A43" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="25"/>
+      <c r="R43" s="25"/>
+      <c r="S43" s="25"/>
+      <c r="T43" s="25"/>
+      <c r="U43" s="25"/>
+      <c r="V43" s="25"/>
+      <c r="W43" s="25"/>
+      <c r="X43" s="26"/>
     </row>
     <row r="44" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A44" s="11"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="12"/>
-      <c r="P44" s="12"/>
-      <c r="Q44" s="12"/>
-      <c r="R44" s="12"/>
-      <c r="S44" s="12"/>
-      <c r="T44" s="12"/>
-      <c r="U44" s="12"/>
-      <c r="V44" s="12"/>
-      <c r="W44" s="12"/>
-      <c r="X44" s="13"/>
+      <c r="A44" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="25"/>
+      <c r="O44" s="25"/>
+      <c r="P44" s="25"/>
+      <c r="Q44" s="25"/>
+      <c r="R44" s="25"/>
+      <c r="S44" s="25"/>
+      <c r="T44" s="25"/>
+      <c r="U44" s="25"/>
+      <c r="V44" s="25"/>
+      <c r="W44" s="25"/>
+      <c r="X44" s="26"/>
     </row>
     <row r="45" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A45" s="14"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="15"/>
-      <c r="N45" s="15"/>
-      <c r="O45" s="15"/>
-      <c r="P45" s="15"/>
-      <c r="Q45" s="15"/>
-      <c r="R45" s="15"/>
-      <c r="S45" s="15"/>
-      <c r="T45" s="15"/>
-      <c r="U45" s="15"/>
-      <c r="V45" s="15"/>
-      <c r="W45" s="15"/>
-      <c r="X45" s="16"/>
+      <c r="A45" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="28"/>
+      <c r="Q45" s="28"/>
+      <c r="R45" s="28"/>
+      <c r="S45" s="28"/>
+      <c r="T45" s="28"/>
+      <c r="U45" s="28"/>
+      <c r="V45" s="28"/>
+      <c r="W45" s="28"/>
+      <c r="X45" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A11:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="A13:X13"/>
+  <mergeCells count="36">
     <mergeCell ref="G1:Q3"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="V1:X1"/>
     <mergeCell ref="A9:C10"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="A1:C2"/>
+    <mergeCell ref="A15:X15"/>
+    <mergeCell ref="A16:X16"/>
+    <mergeCell ref="A17:X17"/>
+    <mergeCell ref="A18:X18"/>
+    <mergeCell ref="A19:X19"/>
+    <mergeCell ref="A20:X20"/>
+    <mergeCell ref="A21:X21"/>
+    <mergeCell ref="A22:X22"/>
+    <mergeCell ref="A24:X24"/>
+    <mergeCell ref="A25:X25"/>
+    <mergeCell ref="A23:X23"/>
+    <mergeCell ref="A26:X26"/>
+    <mergeCell ref="A27:X32"/>
+    <mergeCell ref="A33:X33"/>
+    <mergeCell ref="A38:X38"/>
+    <mergeCell ref="A39:X39"/>
+    <mergeCell ref="A40:X40"/>
+    <mergeCell ref="A41:X41"/>
+    <mergeCell ref="A42:X42"/>
+    <mergeCell ref="A43:X43"/>
+    <mergeCell ref="A44:X44"/>
+    <mergeCell ref="A45:X45"/>
+    <mergeCell ref="A14:X14"/>
+    <mergeCell ref="G9:X9"/>
+    <mergeCell ref="G10:X10"/>
+    <mergeCell ref="G11:X11"/>
+    <mergeCell ref="G12:X12"/>
+    <mergeCell ref="A11:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="A13:X13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>

--- a/Excel/report_hokada.xlsx
+++ b/Excel/report_hokada.xlsx
@@ -490,87 +490,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>　使用性の定量的な評価は、アンケート調査やアクセスログ解析が一般的だが、リリース前で</t>
-    <rPh sb="1" eb="3">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>テイリョウテキ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒョウカ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>チョウサ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>カイセキ</t>
-    </rPh>
-    <rPh sb="30" eb="33">
-      <t>イッパンテキ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>マエ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ある現段階で、このような定量的な評価は困難であった。そのため、各検討項目を満たす実装</t>
-    <rPh sb="2" eb="3">
-      <t>ゲン</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>テイリョウテキ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒョウカ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>コンナン</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ケントウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ジッソウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>が出来たかどうかを評価項目とした。その結果、全ての検討項目を実現できた。</t>
-    <rPh sb="9" eb="11">
-      <t>ヒョウカ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ケントウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ジツゲン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>①iframeプラグインにおけるスクロールバーのWebブラウザ依存問題の調査</t>
     <rPh sb="31" eb="33">
       <t>イゾン</t>
@@ -613,100 +532,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>　→Firefox以外のブラウザ＋HTML5で発生するiframeタグのscrolling属性の不具合を調査。</t>
-    <rPh sb="9" eb="11">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="48" eb="51">
-      <t>フグアイ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>チョウサ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　→バリデーション実装箇所の変更、MVCの構成変更等の仕様変更に対応。</t>
-    <rPh sb="9" eb="11">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カショ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>コウセイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ナド</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　→12月より着手。画面遷移図/ER図/先行実装作業中。</t>
-    <rPh sb="4" eb="5">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>チャクシュ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>センイズ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>センコウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="24" eb="27">
-      <t>サギョウチュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　→iframeプラグイン同様、EFOを考慮した開発を実施。</t>
-    <rPh sb="13" eb="15">
-      <t>ドウヨウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>コウリョ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ジッシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>　この結果得られた機能は、開発者間で共有し、一部機能はNC3の仕様として含まれている。</t>
     <rPh sb="3" eb="5">
       <t>ケッカ</t>
@@ -745,16 +570,194 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>し、①～③を実装した。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>その後、iframeプラグイン自体の機能（機能要件）と合わせ、HTML5/AngularJS/Bootstrapを使用</t>
+    <t>①～③をフォームに実装した。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>その後、iframeプラグイン自体の機能（機能要件）の実装と合わせ、HTML5/AngularJS/Bootstrapを使用し、</t>
     <rPh sb="2" eb="3">
       <t>ゴ</t>
     </rPh>
-    <rPh sb="57" eb="59">
+    <rPh sb="27" eb="29">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　使用性の定量的な評価は、アンケート調査やアクセスログ解析が一般的だが、リリース前の現段階で、</t>
+    <rPh sb="1" eb="3">
       <t>シヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>テイリョウテキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カイセキ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>イッパンテキ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>評価項目とした。その結果、全ての検討項目を実現できた。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジツゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>このような定量的な評価は困難であった。そのため、各検討項目(13項目)を満たす実装が出来たかどうかを</t>
+    <rPh sb="5" eb="8">
+      <t>テイリョウテキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コンナン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　→Firefox以外のWebブラウザ＋HTML5で発生するiframeタグのscrolling属性の不具合を調査する。</t>
+    <rPh sb="9" eb="11">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="51" eb="54">
+      <t>フグアイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　→バリデーション実装箇所の変更、MVCの構成変更等の仕様変更に対応する。</t>
+    <rPh sb="9" eb="11">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　→12月より着手。画面遷移図/ER図/先行実装作業中している。</t>
+    <rPh sb="4" eb="5">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チャクシュ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>センイズ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>センコウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>サギョウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　→iframeプラグイン同様、EFOを考慮した開発を実施する。</t>
+    <rPh sb="13" eb="15">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウリョ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジッシ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -809,7 +812,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1016,43 +1019,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="dotted">
         <color indexed="64"/>
       </bottom>
@@ -1185,7 +1151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1220,31 +1186,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1256,51 +1294,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1313,104 +1306,59 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1484,15 +1432,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>31838</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>237139</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>113950</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>67331</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1501,15 +1449,163 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="381000" y="6610350"/>
-          <a:ext cx="2028825" cy="304800"/>
+          <a:off x="321729" y="6730704"/>
+          <a:ext cx="2691134" cy="310584"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>図</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>双方向データバインディング概念図</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>264503</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3143250" y="5362100"/>
+          <a:ext cx="3693503" cy="241499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
-        </a:solidFill>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>108961</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>195428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>154945</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3877548" y="5247819"/>
+          <a:ext cx="2365114" cy="294490"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
         <a:ln w="9525" cmpd="sng">
           <a:noFill/>
         </a:ln>
@@ -1534,12 +1630,28 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1">
               <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>双方向データバインディング</a:t>
+            <a:t>表</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1">
+              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>1. EFO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1">
+              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>検討項目</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1548,16 +1660,54 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>104776</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>193375</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>150499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>209150</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>238124</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>65126</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>236103</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3382179" y="5443086"/>
+          <a:ext cx="3350447" cy="1526778"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>252428</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2279</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76856</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1567,7 +1717,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1575,8 +1725,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="104776" y="5543550"/>
-          <a:ext cx="2676124" cy="1142999"/>
+          <a:off x="252428" y="5561370"/>
+          <a:ext cx="2938655" cy="1249247"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1884,7 +2034,7 @@
   <dimension ref="A1:X45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10"/>
+      <selection activeCell="AB24" sqref="AB24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="13.5"/>
@@ -1893,56 +2043,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="66"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="32"/>
       <c r="E1" s="8"/>
       <c r="F1" s="10"/>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="50"/>
-      <c r="S1" s="55" t="s">
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="14"/>
+      <c r="S1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="T1" s="56"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="55" t="s">
+      <c r="T1" s="22"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="56"/>
-      <c r="X1" s="57"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="23"/>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="67"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="69"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="35"/>
       <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="5"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="53"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="17"/>
       <c r="S2" s="8"/>
       <c r="T2" s="10"/>
       <c r="U2" s="1"/>
@@ -1953,17 +2103,17 @@
     <row r="3" spans="1:24">
       <c r="E3" s="9"/>
       <c r="F3" s="11"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="44"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="20"/>
       <c r="S3" s="4"/>
       <c r="T3" s="5"/>
       <c r="U3" s="6"/>
@@ -2011,1070 +2161,1043 @@
     </row>
     <row r="8" spans="1:24" ht="3.6" customHeight="1"/>
     <row r="9" spans="1:24" ht="16.899999999999999" customHeight="1">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="62" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="62"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="18" t="s">
+      <c r="E9" s="28"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="20"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="44"/>
     </row>
     <row r="10" spans="1:24" ht="16.899999999999999" customHeight="1">
-      <c r="A10" s="60"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="23"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="46"/>
+      <c r="W10" s="46"/>
+      <c r="X10" s="47"/>
     </row>
     <row r="11" spans="1:24" ht="16.899999999999999" customHeight="1">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="20"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="43"/>
+      <c r="X11" s="44"/>
     </row>
     <row r="12" spans="1:24" ht="16.899999999999999" customHeight="1">
-      <c r="A12" s="41"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43" t="s">
+      <c r="A12" s="50"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="43"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="21" t="s">
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="22"/>
-      <c r="X12" s="23"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="47"/>
     </row>
     <row r="13" spans="1:24" ht="20.45" customHeight="1">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="46"/>
-      <c r="T13" s="46"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="46"/>
-      <c r="W13" s="46"/>
-      <c r="X13" s="47"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="57"/>
     </row>
     <row r="14" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="17"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="59"/>
+      <c r="S14" s="59"/>
+      <c r="T14" s="59"/>
+      <c r="U14" s="59"/>
+      <c r="V14" s="59"/>
+      <c r="W14" s="59"/>
+      <c r="X14" s="60"/>
     </row>
     <row r="15" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="38"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="53"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="54"/>
     </row>
     <row r="16" spans="1:24" ht="19.149999999999999" customHeight="1">
       <c r="A16" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="25"/>
-      <c r="X16" s="26"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="38"/>
     </row>
     <row r="17" spans="1:24" ht="19.149999999999999" customHeight="1">
       <c r="A17" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="25"/>
-      <c r="U17" s="25"/>
-      <c r="V17" s="25"/>
-      <c r="W17" s="25"/>
-      <c r="X17" s="26"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="38"/>
     </row>
     <row r="18" spans="1:24" ht="19.149999999999999" customHeight="1">
       <c r="A18" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="25"/>
-      <c r="V18" s="25"/>
-      <c r="W18" s="25"/>
-      <c r="X18" s="26"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="38"/>
     </row>
     <row r="19" spans="1:24" ht="19.149999999999999" customHeight="1">
       <c r="A19" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="25"/>
-      <c r="U19" s="25"/>
-      <c r="V19" s="25"/>
-      <c r="W19" s="25"/>
-      <c r="X19" s="26"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="38"/>
     </row>
     <row r="20" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="25"/>
-      <c r="X20" s="26"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="65"/>
+      <c r="U20" s="65"/>
+      <c r="V20" s="65"/>
+      <c r="W20" s="65"/>
+      <c r="X20" s="66"/>
     </row>
     <row r="21" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="35"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="59"/>
+      <c r="S21" s="59"/>
+      <c r="T21" s="59"/>
+      <c r="U21" s="59"/>
+      <c r="V21" s="59"/>
+      <c r="W21" s="59"/>
+      <c r="X21" s="60"/>
     </row>
     <row r="22" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="25"/>
-      <c r="W22" s="25"/>
-      <c r="X22" s="26"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="53"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="54"/>
     </row>
     <row r="23" spans="1:24" ht="18.75" customHeight="1">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="25"/>
-      <c r="U23" s="25"/>
-      <c r="V23" s="25"/>
-      <c r="W23" s="25"/>
-      <c r="X23" s="26"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="37"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="37"/>
+      <c r="W23" s="37"/>
+      <c r="X23" s="38"/>
     </row>
     <row r="24" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="37"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="37"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="38"/>
+    </row>
+    <row r="25" spans="1:24" ht="19.149999999999999" customHeight="1">
+      <c r="A25" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="37"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="37"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="38"/>
+    </row>
+    <row r="26" spans="1:24" ht="19.149999999999999" customHeight="1">
+      <c r="A26" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="38"/>
+    </row>
+    <row r="27" spans="1:24" ht="19.149999999999999" customHeight="1">
+      <c r="A27" s="39"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="40"/>
+      <c r="W27" s="40"/>
+      <c r="X27" s="41"/>
+    </row>
+    <row r="28" spans="1:24" ht="19.149999999999999" customHeight="1">
+      <c r="A28" s="15"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="16"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="17"/>
+    </row>
+    <row r="29" spans="1:24" ht="19.149999999999999" customHeight="1">
+      <c r="A29" s="15"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="16"/>
+      <c r="W29" s="16"/>
+      <c r="X29" s="17"/>
+    </row>
+    <row r="30" spans="1:24" ht="18.75" customHeight="1">
+      <c r="A30" s="15"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="16"/>
+      <c r="W30" s="16"/>
+      <c r="X30" s="17"/>
+    </row>
+    <row r="31" spans="1:24" ht="19.149999999999999" customHeight="1">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="16"/>
+      <c r="W31" s="16"/>
+      <c r="X31" s="17"/>
+    </row>
+    <row r="32" spans="1:24" ht="19.149999999999999" customHeight="1">
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="16"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="17"/>
+    </row>
+    <row r="33" spans="1:24" ht="19.149999999999999" customHeight="1">
+      <c r="A33" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="59"/>
+      <c r="N33" s="59"/>
+      <c r="O33" s="59"/>
+      <c r="P33" s="59"/>
+      <c r="Q33" s="59"/>
+      <c r="R33" s="59"/>
+      <c r="S33" s="59"/>
+      <c r="T33" s="59"/>
+      <c r="U33" s="59"/>
+      <c r="V33" s="59"/>
+      <c r="W33" s="59"/>
+      <c r="X33" s="60"/>
+    </row>
+    <row r="34" spans="1:24" ht="19.149999999999999" customHeight="1">
+      <c r="A34" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="53"/>
+      <c r="M34" s="53"/>
+      <c r="N34" s="53"/>
+      <c r="O34" s="53"/>
+      <c r="P34" s="53"/>
+      <c r="Q34" s="53"/>
+      <c r="R34" s="53"/>
+      <c r="S34" s="53"/>
+      <c r="T34" s="53"/>
+      <c r="U34" s="53"/>
+      <c r="V34" s="53"/>
+      <c r="W34" s="53"/>
+      <c r="X34" s="54"/>
+    </row>
+    <row r="35" spans="1:24" ht="19.149999999999999" customHeight="1">
+      <c r="A35" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="37"/>
+      <c r="Q35" s="37"/>
+      <c r="R35" s="37"/>
+      <c r="S35" s="37"/>
+      <c r="T35" s="37"/>
+      <c r="U35" s="37"/>
+      <c r="V35" s="37"/>
+      <c r="W35" s="37"/>
+      <c r="X35" s="38"/>
+    </row>
+    <row r="36" spans="1:24" ht="19.149999999999999" customHeight="1">
+      <c r="A36" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="37"/>
+      <c r="U36" s="37"/>
+      <c r="V36" s="37"/>
+      <c r="W36" s="37"/>
+      <c r="X36" s="38"/>
+    </row>
+    <row r="37" spans="1:24" ht="19.149999999999999" customHeight="1">
+      <c r="A37" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="65"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="65"/>
+      <c r="L37" s="65"/>
+      <c r="M37" s="65"/>
+      <c r="N37" s="65"/>
+      <c r="O37" s="65"/>
+      <c r="P37" s="65"/>
+      <c r="Q37" s="65"/>
+      <c r="R37" s="65"/>
+      <c r="S37" s="65"/>
+      <c r="T37" s="65"/>
+      <c r="U37" s="65"/>
+      <c r="V37" s="65"/>
+      <c r="W37" s="65"/>
+      <c r="X37" s="66"/>
+    </row>
+    <row r="38" spans="1:24" ht="19.149999999999999" customHeight="1">
+      <c r="A38" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="62"/>
+      <c r="K38" s="62"/>
+      <c r="L38" s="62"/>
+      <c r="M38" s="62"/>
+      <c r="N38" s="62"/>
+      <c r="O38" s="62"/>
+      <c r="P38" s="62"/>
+      <c r="Q38" s="62"/>
+      <c r="R38" s="62"/>
+      <c r="S38" s="62"/>
+      <c r="T38" s="62"/>
+      <c r="U38" s="62"/>
+      <c r="V38" s="62"/>
+      <c r="W38" s="62"/>
+      <c r="X38" s="63"/>
+    </row>
+    <row r="39" spans="1:24" ht="19.149999999999999" customHeight="1">
+      <c r="A39" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="53"/>
+      <c r="O39" s="53"/>
+      <c r="P39" s="53"/>
+      <c r="Q39" s="53"/>
+      <c r="R39" s="53"/>
+      <c r="S39" s="53"/>
+      <c r="T39" s="53"/>
+      <c r="U39" s="53"/>
+      <c r="V39" s="53"/>
+      <c r="W39" s="53"/>
+      <c r="X39" s="54"/>
+    </row>
+    <row r="40" spans="1:24" ht="19.149999999999999" customHeight="1">
+      <c r="A40" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="37"/>
+      <c r="O40" s="37"/>
+      <c r="P40" s="37"/>
+      <c r="Q40" s="37"/>
+      <c r="R40" s="37"/>
+      <c r="S40" s="37"/>
+      <c r="T40" s="37"/>
+      <c r="U40" s="37"/>
+      <c r="V40" s="37"/>
+      <c r="W40" s="37"/>
+      <c r="X40" s="38"/>
+    </row>
+    <row r="41" spans="1:24" ht="18.75" customHeight="1">
+      <c r="A41" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="37"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="37"/>
+      <c r="S41" s="37"/>
+      <c r="T41" s="37"/>
+      <c r="U41" s="37"/>
+      <c r="V41" s="37"/>
+      <c r="W41" s="37"/>
+      <c r="X41" s="38"/>
+    </row>
+    <row r="42" spans="1:24" ht="19.149999999999999" customHeight="1">
+      <c r="A42" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="25"/>
-      <c r="X24" s="26"/>
-    </row>
-    <row r="25" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A25" s="24" t="s">
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="37"/>
+      <c r="R42" s="37"/>
+      <c r="S42" s="37"/>
+      <c r="T42" s="37"/>
+      <c r="U42" s="37"/>
+      <c r="V42" s="37"/>
+      <c r="W42" s="37"/>
+      <c r="X42" s="38"/>
+    </row>
+    <row r="43" spans="1:24" ht="19.149999999999999" customHeight="1">
+      <c r="A43" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="37"/>
+      <c r="O43" s="37"/>
+      <c r="P43" s="37"/>
+      <c r="Q43" s="37"/>
+      <c r="R43" s="37"/>
+      <c r="S43" s="37"/>
+      <c r="T43" s="37"/>
+      <c r="U43" s="37"/>
+      <c r="V43" s="37"/>
+      <c r="W43" s="37"/>
+      <c r="X43" s="38"/>
+    </row>
+    <row r="44" spans="1:24" ht="19.149999999999999" customHeight="1">
+      <c r="A44" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="37"/>
+      <c r="N44" s="37"/>
+      <c r="O44" s="37"/>
+      <c r="P44" s="37"/>
+      <c r="Q44" s="37"/>
+      <c r="R44" s="37"/>
+      <c r="S44" s="37"/>
+      <c r="T44" s="37"/>
+      <c r="U44" s="37"/>
+      <c r="V44" s="37"/>
+      <c r="W44" s="37"/>
+      <c r="X44" s="38"/>
+    </row>
+    <row r="45" spans="1:24" ht="19.149999999999999" customHeight="1">
+      <c r="A45" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="25"/>
-      <c r="U25" s="25"/>
-      <c r="V25" s="25"/>
-      <c r="W25" s="25"/>
-      <c r="X25" s="26"/>
-    </row>
-    <row r="26" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A26" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="25"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="25"/>
-      <c r="X26" s="26"/>
-    </row>
-    <row r="27" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A27" s="70"/>
-      <c r="B27" s="71"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="71"/>
-      <c r="L27" s="71"/>
-      <c r="M27" s="71"/>
-      <c r="N27" s="71"/>
-      <c r="O27" s="71"/>
-      <c r="P27" s="71"/>
-      <c r="Q27" s="71"/>
-      <c r="R27" s="71"/>
-      <c r="S27" s="71"/>
-      <c r="T27" s="71"/>
-      <c r="U27" s="71"/>
-      <c r="V27" s="71"/>
-      <c r="W27" s="71"/>
-      <c r="X27" s="72"/>
-    </row>
-    <row r="28" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A28" s="51"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="52"/>
-      <c r="R28" s="52"/>
-      <c r="S28" s="52"/>
-      <c r="T28" s="52"/>
-      <c r="U28" s="52"/>
-      <c r="V28" s="52"/>
-      <c r="W28" s="52"/>
-      <c r="X28" s="53"/>
-    </row>
-    <row r="29" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A29" s="51"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="52"/>
-      <c r="S29" s="52"/>
-      <c r="T29" s="52"/>
-      <c r="U29" s="52"/>
-      <c r="V29" s="52"/>
-      <c r="W29" s="52"/>
-      <c r="X29" s="53"/>
-    </row>
-    <row r="30" spans="1:24" ht="18.75" customHeight="1">
-      <c r="A30" s="51"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="52"/>
-      <c r="R30" s="52"/>
-      <c r="S30" s="52"/>
-      <c r="T30" s="52"/>
-      <c r="U30" s="52"/>
-      <c r="V30" s="52"/>
-      <c r="W30" s="52"/>
-      <c r="X30" s="53"/>
-    </row>
-    <row r="31" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A31" s="51"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="52"/>
-      <c r="S31" s="52"/>
-      <c r="T31" s="52"/>
-      <c r="U31" s="52"/>
-      <c r="V31" s="52"/>
-      <c r="W31" s="52"/>
-      <c r="X31" s="53"/>
-    </row>
-    <row r="32" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A32" s="73"/>
-      <c r="B32" s="74"/>
-      <c r="C32" s="74"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="74"/>
-      <c r="I32" s="74"/>
-      <c r="J32" s="74"/>
-      <c r="K32" s="74"/>
-      <c r="L32" s="74"/>
-      <c r="M32" s="74"/>
-      <c r="N32" s="74"/>
-      <c r="O32" s="74"/>
-      <c r="P32" s="74"/>
-      <c r="Q32" s="74"/>
-      <c r="R32" s="74"/>
-      <c r="S32" s="74"/>
-      <c r="T32" s="74"/>
-      <c r="U32" s="74"/>
-      <c r="V32" s="74"/>
-      <c r="W32" s="74"/>
-      <c r="X32" s="75"/>
-    </row>
-    <row r="33" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A33" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="34"/>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="34"/>
-      <c r="S33" s="34"/>
-      <c r="T33" s="34"/>
-      <c r="U33" s="34"/>
-      <c r="V33" s="34"/>
-      <c r="W33" s="34"/>
-      <c r="X33" s="35"/>
-    </row>
-    <row r="34" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A34" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="12"/>
-      <c r="T34" s="12"/>
-      <c r="U34" s="12"/>
-      <c r="V34" s="12"/>
-      <c r="W34" s="12"/>
-      <c r="X34" s="13"/>
-    </row>
-    <row r="35" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A35" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="12"/>
-      <c r="S35" s="12"/>
-      <c r="T35" s="12"/>
-      <c r="U35" s="12"/>
-      <c r="V35" s="12"/>
-      <c r="W35" s="12"/>
-      <c r="X35" s="13"/>
-    </row>
-    <row r="36" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A36" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="12"/>
-      <c r="T36" s="12"/>
-      <c r="U36" s="12"/>
-      <c r="V36" s="12"/>
-      <c r="W36" s="12"/>
-      <c r="X36" s="13"/>
-    </row>
-    <row r="37" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A37" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="12"/>
-      <c r="T37" s="12"/>
-      <c r="U37" s="12"/>
-      <c r="V37" s="12"/>
-      <c r="W37" s="12"/>
-      <c r="X37" s="13"/>
-    </row>
-    <row r="38" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A38" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="31"/>
-      <c r="T38" s="31"/>
-      <c r="U38" s="31"/>
-      <c r="V38" s="31"/>
-      <c r="W38" s="31"/>
-      <c r="X38" s="32"/>
-    </row>
-    <row r="39" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A39" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="25"/>
-      <c r="P39" s="25"/>
-      <c r="Q39" s="25"/>
-      <c r="R39" s="25"/>
-      <c r="S39" s="25"/>
-      <c r="T39" s="25"/>
-      <c r="U39" s="25"/>
-      <c r="V39" s="25"/>
-      <c r="W39" s="25"/>
-      <c r="X39" s="26"/>
-    </row>
-    <row r="40" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A40" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="25"/>
-      <c r="O40" s="25"/>
-      <c r="P40" s="25"/>
-      <c r="Q40" s="25"/>
-      <c r="R40" s="25"/>
-      <c r="S40" s="25"/>
-      <c r="T40" s="25"/>
-      <c r="U40" s="25"/>
-      <c r="V40" s="25"/>
-      <c r="W40" s="25"/>
-      <c r="X40" s="26"/>
-    </row>
-    <row r="41" spans="1:24" ht="18.75" customHeight="1">
-      <c r="A41" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="25"/>
-      <c r="N41" s="25"/>
-      <c r="O41" s="25"/>
-      <c r="P41" s="25"/>
-      <c r="Q41" s="25"/>
-      <c r="R41" s="25"/>
-      <c r="S41" s="25"/>
-      <c r="T41" s="25"/>
-      <c r="U41" s="25"/>
-      <c r="V41" s="25"/>
-      <c r="W41" s="25"/>
-      <c r="X41" s="26"/>
-    </row>
-    <row r="42" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A42" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
-      <c r="M42" s="25"/>
-      <c r="N42" s="25"/>
-      <c r="O42" s="25"/>
-      <c r="P42" s="25"/>
-      <c r="Q42" s="25"/>
-      <c r="R42" s="25"/>
-      <c r="S42" s="25"/>
-      <c r="T42" s="25"/>
-      <c r="U42" s="25"/>
-      <c r="V42" s="25"/>
-      <c r="W42" s="25"/>
-      <c r="X42" s="26"/>
-    </row>
-    <row r="43" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A43" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="25"/>
-      <c r="N43" s="25"/>
-      <c r="O43" s="25"/>
-      <c r="P43" s="25"/>
-      <c r="Q43" s="25"/>
-      <c r="R43" s="25"/>
-      <c r="S43" s="25"/>
-      <c r="T43" s="25"/>
-      <c r="U43" s="25"/>
-      <c r="V43" s="25"/>
-      <c r="W43" s="25"/>
-      <c r="X43" s="26"/>
-    </row>
-    <row r="44" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A44" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="25"/>
-      <c r="M44" s="25"/>
-      <c r="N44" s="25"/>
-      <c r="O44" s="25"/>
-      <c r="P44" s="25"/>
-      <c r="Q44" s="25"/>
-      <c r="R44" s="25"/>
-      <c r="S44" s="25"/>
-      <c r="T44" s="25"/>
-      <c r="U44" s="25"/>
-      <c r="V44" s="25"/>
-      <c r="W44" s="25"/>
-      <c r="X44" s="26"/>
-    </row>
-    <row r="45" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A45" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="28"/>
-      <c r="L45" s="28"/>
-      <c r="M45" s="28"/>
-      <c r="N45" s="28"/>
-      <c r="O45" s="28"/>
-      <c r="P45" s="28"/>
-      <c r="Q45" s="28"/>
-      <c r="R45" s="28"/>
-      <c r="S45" s="28"/>
-      <c r="T45" s="28"/>
-      <c r="U45" s="28"/>
-      <c r="V45" s="28"/>
-      <c r="W45" s="28"/>
-      <c r="X45" s="29"/>
+      <c r="B45" s="68"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="68"/>
+      <c r="H45" s="68"/>
+      <c r="I45" s="68"/>
+      <c r="J45" s="68"/>
+      <c r="K45" s="68"/>
+      <c r="L45" s="68"/>
+      <c r="M45" s="68"/>
+      <c r="N45" s="68"/>
+      <c r="O45" s="68"/>
+      <c r="P45" s="68"/>
+      <c r="Q45" s="68"/>
+      <c r="R45" s="68"/>
+      <c r="S45" s="68"/>
+      <c r="T45" s="68"/>
+      <c r="U45" s="68"/>
+      <c r="V45" s="68"/>
+      <c r="W45" s="68"/>
+      <c r="X45" s="69"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="G1:Q3"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="A9:C10"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="A15:X15"/>
-    <mergeCell ref="A16:X16"/>
-    <mergeCell ref="A17:X17"/>
-    <mergeCell ref="A18:X18"/>
-    <mergeCell ref="A19:X19"/>
-    <mergeCell ref="A20:X20"/>
-    <mergeCell ref="A21:X21"/>
-    <mergeCell ref="A22:X22"/>
-    <mergeCell ref="A24:X24"/>
-    <mergeCell ref="A25:X25"/>
-    <mergeCell ref="A23:X23"/>
-    <mergeCell ref="A26:X26"/>
-    <mergeCell ref="A27:X32"/>
-    <mergeCell ref="A33:X33"/>
-    <mergeCell ref="A38:X38"/>
-    <mergeCell ref="A39:X39"/>
-    <mergeCell ref="A40:X40"/>
-    <mergeCell ref="A41:X41"/>
-    <mergeCell ref="A42:X42"/>
-    <mergeCell ref="A43:X43"/>
-    <mergeCell ref="A44:X44"/>
+  <mergeCells count="40">
     <mergeCell ref="A45:X45"/>
     <mergeCell ref="A14:X14"/>
     <mergeCell ref="G9:X9"/>
@@ -3084,6 +3207,37 @@
     <mergeCell ref="A11:C12"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="A13:X13"/>
+    <mergeCell ref="A34:X34"/>
+    <mergeCell ref="A35:X35"/>
+    <mergeCell ref="A36:X36"/>
+    <mergeCell ref="A37:X37"/>
+    <mergeCell ref="A40:X40"/>
+    <mergeCell ref="A41:X41"/>
+    <mergeCell ref="A42:X42"/>
+    <mergeCell ref="A43:X43"/>
+    <mergeCell ref="A44:X44"/>
+    <mergeCell ref="A26:X26"/>
+    <mergeCell ref="A27:X32"/>
+    <mergeCell ref="A33:X33"/>
+    <mergeCell ref="A38:X38"/>
+    <mergeCell ref="A39:X39"/>
+    <mergeCell ref="A20:X20"/>
+    <mergeCell ref="A21:X21"/>
+    <mergeCell ref="A22:X22"/>
+    <mergeCell ref="A24:X24"/>
+    <mergeCell ref="A25:X25"/>
+    <mergeCell ref="A23:X23"/>
+    <mergeCell ref="A15:X15"/>
+    <mergeCell ref="A16:X16"/>
+    <mergeCell ref="A17:X17"/>
+    <mergeCell ref="A18:X18"/>
+    <mergeCell ref="A19:X19"/>
+    <mergeCell ref="G1:Q3"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="A9:C10"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="A1:C2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>

--- a/Excel/report_hokada.xlsx
+++ b/Excel/report_hokada.xlsx
@@ -401,43 +401,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>力がしやすい・エラー内容が把握しやすい等，一般的に『使用性』と総称される分野での改善を図り，機能</t>
-    <rPh sb="10" eb="12">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ハアク</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ナド</t>
-    </rPh>
-    <rPh sb="21" eb="24">
-      <t>イッパンテキ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ソウショウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ブンヤ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>カイゼン</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ハカ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>プラグイン自体の機能（機能要件）の実装と合わせ，HTML5・AngularJS・Bootstrapを使用し，上記①～③</t>
     <rPh sb="17" eb="19">
       <t>ジッソウ</t>
@@ -761,6 +724,49 @@
     </rPh>
     <rPh sb="32" eb="33">
       <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>力がしやすい・エラー内容が把握しやすい等，非機能要件の特性である『使用性』の面で改善を図り，機能</t>
+    <rPh sb="10" eb="12">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハアク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>トクセイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>メン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>カイゼン</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ハカ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>キ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1195,6 +1201,120 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1204,24 +1324,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1266,105 +1371,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1978,7 +1984,7 @@
   <dimension ref="A1:X45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK16" sqref="AK16"/>
+      <selection activeCell="A25" sqref="A25:X25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="13.5"/>
@@ -1987,56 +1993,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="69"/>
       <c r="E1" s="8"/>
       <c r="F1" s="10"/>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="18"/>
-      <c r="S1" s="25" t="s">
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="56"/>
+      <c r="S1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="T1" s="26"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="25" t="s">
+      <c r="T1" s="59"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="26"/>
-      <c r="X1" s="27"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="60"/>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="72"/>
       <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="5"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="21"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="49"/>
       <c r="S2" s="8"/>
       <c r="T2" s="10"/>
       <c r="U2" s="1"/>
@@ -2047,17 +2053,17 @@
     <row r="3" spans="1:24">
       <c r="E3" s="9"/>
       <c r="F3" s="11"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="24"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="35"/>
       <c r="S3" s="4"/>
       <c r="T3" s="5"/>
       <c r="U3" s="6"/>
@@ -2105,506 +2111,506 @@
     </row>
     <row r="8" spans="1:24" ht="3.6" customHeight="1"/>
     <row r="9" spans="1:24" ht="16.899999999999999" customHeight="1">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="32" t="s">
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="60" t="s">
+      <c r="E9" s="65"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="61"/>
-      <c r="T9" s="61"/>
-      <c r="U9" s="61"/>
-      <c r="V9" s="61"/>
-      <c r="W9" s="61"/>
-      <c r="X9" s="62"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="26"/>
     </row>
     <row r="10" spans="1:24" ht="16.899999999999999" customHeight="1">
-      <c r="A10" s="30"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="63" t="s">
+      <c r="G10" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="64"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="64"/>
-      <c r="V10" s="64"/>
-      <c r="W10" s="64"/>
-      <c r="X10" s="65"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="29"/>
     </row>
     <row r="11" spans="1:24" ht="16.899999999999999" customHeight="1">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
       <c r="D11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="60" t="s">
+      <c r="G11" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="61"/>
-      <c r="S11" s="61"/>
-      <c r="T11" s="61"/>
-      <c r="U11" s="61"/>
-      <c r="V11" s="61"/>
-      <c r="W11" s="61"/>
-      <c r="X11" s="62"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="26"/>
     </row>
     <row r="12" spans="1:24" ht="16.899999999999999" customHeight="1">
-      <c r="A12" s="68"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="23" t="s">
+      <c r="A12" s="32"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="63" t="s">
+      <c r="E12" s="34"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="64"/>
-      <c r="P12" s="64"/>
-      <c r="Q12" s="64"/>
-      <c r="R12" s="64"/>
-      <c r="S12" s="64"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="64"/>
-      <c r="V12" s="64"/>
-      <c r="W12" s="64"/>
-      <c r="X12" s="65"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="29"/>
     </row>
     <row r="13" spans="1:24" ht="20.45" customHeight="1">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
-      <c r="O13" s="71"/>
-      <c r="P13" s="71"/>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="71"/>
-      <c r="S13" s="71"/>
-      <c r="T13" s="71"/>
-      <c r="U13" s="71"/>
-      <c r="V13" s="71"/>
-      <c r="W13" s="71"/>
-      <c r="X13" s="72"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="38"/>
     </row>
     <row r="14" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="50"/>
-      <c r="U14" s="50"/>
-      <c r="V14" s="50"/>
-      <c r="W14" s="50"/>
-      <c r="X14" s="51"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="23"/>
     </row>
     <row r="15" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="41"/>
-      <c r="T15" s="41"/>
-      <c r="U15" s="41"/>
-      <c r="V15" s="41"/>
-      <c r="W15" s="41"/>
-      <c r="X15" s="42"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="41"/>
     </row>
     <row r="16" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="42"/>
+    </row>
+    <row r="17" spans="1:24" ht="19.149999999999999" customHeight="1">
+      <c r="A17" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="44"/>
-      <c r="T16" s="44"/>
-      <c r="U16" s="44"/>
-      <c r="V16" s="44"/>
-      <c r="W16" s="44"/>
-      <c r="X16" s="45"/>
-    </row>
-    <row r="17" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A17" s="43" t="s">
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="42"/>
+    </row>
+    <row r="18" spans="1:24" ht="19.149999999999999" customHeight="1">
+      <c r="A18" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="42"/>
+    </row>
+    <row r="19" spans="1:24" ht="19.149999999999999" customHeight="1">
+      <c r="A19" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="42"/>
+    </row>
+    <row r="20" spans="1:24" ht="19.149999999999999" customHeight="1">
+      <c r="A20" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="44"/>
-      <c r="W17" s="44"/>
-      <c r="X17" s="45"/>
-    </row>
-    <row r="18" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A18" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="44"/>
-      <c r="U18" s="44"/>
-      <c r="V18" s="44"/>
-      <c r="W18" s="44"/>
-      <c r="X18" s="45"/>
-    </row>
-    <row r="19" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A19" s="43" t="s">
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="45"/>
+    </row>
+    <row r="21" spans="1:24" ht="19.149999999999999" customHeight="1">
+      <c r="A21" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="22"/>
+      <c r="X21" s="23"/>
+    </row>
+    <row r="22" spans="1:24" ht="19.149999999999999" customHeight="1">
+      <c r="A22" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="41"/>
+    </row>
+    <row r="23" spans="1:24" ht="18.75" customHeight="1">
+      <c r="A23" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="42"/>
+    </row>
+    <row r="24" spans="1:24" ht="19.149999999999999" customHeight="1">
+      <c r="A24" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="42"/>
+    </row>
+    <row r="25" spans="1:24" ht="19.149999999999999" customHeight="1">
+      <c r="A25" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="44"/>
-      <c r="T19" s="44"/>
-      <c r="U19" s="44"/>
-      <c r="V19" s="44"/>
-      <c r="W19" s="44"/>
-      <c r="X19" s="45"/>
-    </row>
-    <row r="20" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A20" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="47"/>
-      <c r="W20" s="47"/>
-      <c r="X20" s="48"/>
-    </row>
-    <row r="21" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A21" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="50"/>
-      <c r="S21" s="50"/>
-      <c r="T21" s="50"/>
-      <c r="U21" s="50"/>
-      <c r="V21" s="50"/>
-      <c r="W21" s="50"/>
-      <c r="X21" s="51"/>
-    </row>
-    <row r="22" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A22" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="41"/>
-      <c r="V22" s="41"/>
-      <c r="W22" s="41"/>
-      <c r="X22" s="42"/>
-    </row>
-    <row r="23" spans="1:24" ht="18.75" customHeight="1">
-      <c r="A23" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="44"/>
-      <c r="S23" s="44"/>
-      <c r="T23" s="44"/>
-      <c r="U23" s="44"/>
-      <c r="V23" s="44"/>
-      <c r="W23" s="44"/>
-      <c r="X23" s="45"/>
-    </row>
-    <row r="24" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A24" s="43" t="s">
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
+      <c r="X25" s="42"/>
+    </row>
+    <row r="26" spans="1:24" ht="19.149999999999999" customHeight="1">
+      <c r="A26" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="44"/>
-      <c r="S24" s="44"/>
-      <c r="T24" s="44"/>
-      <c r="U24" s="44"/>
-      <c r="V24" s="44"/>
-      <c r="W24" s="44"/>
-      <c r="X24" s="45"/>
-    </row>
-    <row r="25" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A25" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="44"/>
-      <c r="S25" s="44"/>
-      <c r="T25" s="44"/>
-      <c r="U25" s="44"/>
-      <c r="V25" s="44"/>
-      <c r="W25" s="44"/>
-      <c r="X25" s="45"/>
-    </row>
-    <row r="26" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A26" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
@@ -2621,174 +2627,174 @@
       <c r="X26" s="13"/>
     </row>
     <row r="27" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A27" s="52"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="20"/>
-      <c r="W27" s="20"/>
-      <c r="X27" s="21"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="48"/>
+      <c r="T27" s="48"/>
+      <c r="U27" s="48"/>
+      <c r="V27" s="48"/>
+      <c r="W27" s="48"/>
+      <c r="X27" s="49"/>
     </row>
     <row r="28" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A28" s="19"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="20"/>
-      <c r="W28" s="20"/>
-      <c r="X28" s="21"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="48"/>
+      <c r="R28" s="48"/>
+      <c r="S28" s="48"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="48"/>
+      <c r="V28" s="48"/>
+      <c r="W28" s="48"/>
+      <c r="X28" s="49"/>
     </row>
     <row r="29" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A29" s="19"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="20"/>
-      <c r="V29" s="20"/>
-      <c r="W29" s="20"/>
-      <c r="X29" s="21"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="48"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="48"/>
+      <c r="X29" s="49"/>
     </row>
     <row r="30" spans="1:24" ht="18.75" customHeight="1">
-      <c r="A30" s="19"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="20"/>
-      <c r="V30" s="20"/>
-      <c r="W30" s="20"/>
-      <c r="X30" s="21"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="48"/>
+      <c r="R30" s="48"/>
+      <c r="S30" s="48"/>
+      <c r="T30" s="48"/>
+      <c r="U30" s="48"/>
+      <c r="V30" s="48"/>
+      <c r="W30" s="48"/>
+      <c r="X30" s="49"/>
     </row>
     <row r="31" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A31" s="19"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="20"/>
-      <c r="T31" s="20"/>
-      <c r="U31" s="20"/>
-      <c r="V31" s="20"/>
-      <c r="W31" s="20"/>
-      <c r="X31" s="21"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="48"/>
+      <c r="S31" s="48"/>
+      <c r="T31" s="48"/>
+      <c r="U31" s="48"/>
+      <c r="V31" s="48"/>
+      <c r="W31" s="48"/>
+      <c r="X31" s="49"/>
     </row>
     <row r="32" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A32" s="19"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
-      <c r="U32" s="20"/>
-      <c r="V32" s="20"/>
-      <c r="W32" s="20"/>
-      <c r="X32" s="21"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="48"/>
+      <c r="S32" s="48"/>
+      <c r="T32" s="48"/>
+      <c r="U32" s="48"/>
+      <c r="V32" s="48"/>
+      <c r="W32" s="48"/>
+      <c r="X32" s="49"/>
     </row>
     <row r="33" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
       <c r="K33" s="14"/>
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
@@ -2805,343 +2811,367 @@
       <c r="X33" s="15"/>
     </row>
     <row r="34" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A34" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="41"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="41"/>
-      <c r="S34" s="41"/>
-      <c r="T34" s="41"/>
-      <c r="U34" s="41"/>
-      <c r="V34" s="41"/>
-      <c r="W34" s="41"/>
-      <c r="X34" s="42"/>
+      <c r="A34" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="40"/>
+      <c r="S34" s="40"/>
+      <c r="T34" s="40"/>
+      <c r="U34" s="40"/>
+      <c r="V34" s="40"/>
+      <c r="W34" s="40"/>
+      <c r="X34" s="41"/>
     </row>
     <row r="35" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="17"/>
+      <c r="V35" s="17"/>
+      <c r="W35" s="17"/>
+      <c r="X35" s="42"/>
+    </row>
+    <row r="36" spans="1:24" ht="19.149999999999999" customHeight="1">
+      <c r="A36" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
+      <c r="V36" s="17"/>
+      <c r="W36" s="17"/>
+      <c r="X36" s="42"/>
+    </row>
+    <row r="37" spans="1:24" ht="19.149999999999999" customHeight="1">
+      <c r="A37" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="44"/>
-      <c r="M35" s="44"/>
-      <c r="N35" s="44"/>
-      <c r="O35" s="44"/>
-      <c r="P35" s="44"/>
-      <c r="Q35" s="44"/>
-      <c r="R35" s="44"/>
-      <c r="S35" s="44"/>
-      <c r="T35" s="44"/>
-      <c r="U35" s="44"/>
-      <c r="V35" s="44"/>
-      <c r="W35" s="44"/>
-      <c r="X35" s="45"/>
-    </row>
-    <row r="36" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A36" s="43" t="s">
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="44"/>
+      <c r="O37" s="44"/>
+      <c r="P37" s="44"/>
+      <c r="Q37" s="44"/>
+      <c r="R37" s="44"/>
+      <c r="S37" s="44"/>
+      <c r="T37" s="44"/>
+      <c r="U37" s="44"/>
+      <c r="V37" s="44"/>
+      <c r="W37" s="44"/>
+      <c r="X37" s="45"/>
+    </row>
+    <row r="38" spans="1:24" ht="19.149999999999999" customHeight="1">
+      <c r="A38" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="52"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="52"/>
+      <c r="O38" s="52"/>
+      <c r="P38" s="52"/>
+      <c r="Q38" s="52"/>
+      <c r="R38" s="52"/>
+      <c r="S38" s="52"/>
+      <c r="T38" s="52"/>
+      <c r="U38" s="52"/>
+      <c r="V38" s="52"/>
+      <c r="W38" s="52"/>
+      <c r="X38" s="53"/>
+    </row>
+    <row r="39" spans="1:24" ht="19.149999999999999" customHeight="1">
+      <c r="A39" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="40"/>
+      <c r="S39" s="40"/>
+      <c r="T39" s="40"/>
+      <c r="U39" s="40"/>
+      <c r="V39" s="40"/>
+      <c r="W39" s="40"/>
+      <c r="X39" s="41"/>
+    </row>
+    <row r="40" spans="1:24" ht="19.149999999999999" customHeight="1">
+      <c r="A40" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="17"/>
+      <c r="V40" s="17"/>
+      <c r="W40" s="17"/>
+      <c r="X40" s="42"/>
+    </row>
+    <row r="41" spans="1:24" ht="18.75" customHeight="1">
+      <c r="A41" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="17"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="17"/>
+      <c r="V41" s="17"/>
+      <c r="W41" s="17"/>
+      <c r="X41" s="42"/>
+    </row>
+    <row r="42" spans="1:24" ht="19.149999999999999" customHeight="1">
+      <c r="A42" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="17"/>
+      <c r="V42" s="17"/>
+      <c r="W42" s="17"/>
+      <c r="X42" s="42"/>
+    </row>
+    <row r="43" spans="1:24" ht="19.149999999999999" customHeight="1">
+      <c r="A43" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="17"/>
+      <c r="T43" s="17"/>
+      <c r="U43" s="17"/>
+      <c r="V43" s="17"/>
+      <c r="W43" s="17"/>
+      <c r="X43" s="42"/>
+    </row>
+    <row r="44" spans="1:24" ht="19.149999999999999" customHeight="1">
+      <c r="A44" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44"/>
-      <c r="N36" s="44"/>
-      <c r="O36" s="44"/>
-      <c r="P36" s="44"/>
-      <c r="Q36" s="44"/>
-      <c r="R36" s="44"/>
-      <c r="S36" s="44"/>
-      <c r="T36" s="44"/>
-      <c r="U36" s="44"/>
-      <c r="V36" s="44"/>
-      <c r="W36" s="44"/>
-      <c r="X36" s="45"/>
-    </row>
-    <row r="37" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A37" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="47"/>
-      <c r="M37" s="47"/>
-      <c r="N37" s="47"/>
-      <c r="O37" s="47"/>
-      <c r="P37" s="47"/>
-      <c r="Q37" s="47"/>
-      <c r="R37" s="47"/>
-      <c r="S37" s="47"/>
-      <c r="T37" s="47"/>
-      <c r="U37" s="47"/>
-      <c r="V37" s="47"/>
-      <c r="W37" s="47"/>
-      <c r="X37" s="48"/>
-    </row>
-    <row r="38" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A38" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38" s="55"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="55"/>
-      <c r="K38" s="55"/>
-      <c r="L38" s="55"/>
-      <c r="M38" s="55"/>
-      <c r="N38" s="55"/>
-      <c r="O38" s="55"/>
-      <c r="P38" s="55"/>
-      <c r="Q38" s="55"/>
-      <c r="R38" s="55"/>
-      <c r="S38" s="55"/>
-      <c r="T38" s="55"/>
-      <c r="U38" s="55"/>
-      <c r="V38" s="55"/>
-      <c r="W38" s="55"/>
-      <c r="X38" s="56"/>
-    </row>
-    <row r="39" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A39" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="41"/>
-      <c r="O39" s="41"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="41"/>
-      <c r="S39" s="41"/>
-      <c r="T39" s="41"/>
-      <c r="U39" s="41"/>
-      <c r="V39" s="41"/>
-      <c r="W39" s="41"/>
-      <c r="X39" s="42"/>
-    </row>
-    <row r="40" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A40" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="44"/>
-      <c r="M40" s="44"/>
-      <c r="N40" s="44"/>
-      <c r="O40" s="44"/>
-      <c r="P40" s="44"/>
-      <c r="Q40" s="44"/>
-      <c r="R40" s="44"/>
-      <c r="S40" s="44"/>
-      <c r="T40" s="44"/>
-      <c r="U40" s="44"/>
-      <c r="V40" s="44"/>
-      <c r="W40" s="44"/>
-      <c r="X40" s="45"/>
-    </row>
-    <row r="41" spans="1:24" ht="18.75" customHeight="1">
-      <c r="A41" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="B41" s="44"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="44"/>
-      <c r="M41" s="44"/>
-      <c r="N41" s="44"/>
-      <c r="O41" s="44"/>
-      <c r="P41" s="44"/>
-      <c r="Q41" s="44"/>
-      <c r="R41" s="44"/>
-      <c r="S41" s="44"/>
-      <c r="T41" s="44"/>
-      <c r="U41" s="44"/>
-      <c r="V41" s="44"/>
-      <c r="W41" s="44"/>
-      <c r="X41" s="45"/>
-    </row>
-    <row r="42" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A42" s="43" t="s">
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="17"/>
+      <c r="S44" s="17"/>
+      <c r="T44" s="17"/>
+      <c r="U44" s="17"/>
+      <c r="V44" s="17"/>
+      <c r="W44" s="17"/>
+      <c r="X44" s="42"/>
+    </row>
+    <row r="45" spans="1:24" ht="19.149999999999999" customHeight="1">
+      <c r="A45" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="44"/>
-      <c r="L42" s="44"/>
-      <c r="M42" s="44"/>
-      <c r="N42" s="44"/>
-      <c r="O42" s="44"/>
-      <c r="P42" s="44"/>
-      <c r="Q42" s="44"/>
-      <c r="R42" s="44"/>
-      <c r="S42" s="44"/>
-      <c r="T42" s="44"/>
-      <c r="U42" s="44"/>
-      <c r="V42" s="44"/>
-      <c r="W42" s="44"/>
-      <c r="X42" s="45"/>
-    </row>
-    <row r="43" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A43" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="B43" s="44"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="44"/>
-      <c r="K43" s="44"/>
-      <c r="L43" s="44"/>
-      <c r="M43" s="44"/>
-      <c r="N43" s="44"/>
-      <c r="O43" s="44"/>
-      <c r="P43" s="44"/>
-      <c r="Q43" s="44"/>
-      <c r="R43" s="44"/>
-      <c r="S43" s="44"/>
-      <c r="T43" s="44"/>
-      <c r="U43" s="44"/>
-      <c r="V43" s="44"/>
-      <c r="W43" s="44"/>
-      <c r="X43" s="45"/>
-    </row>
-    <row r="44" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A44" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="44"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="44"/>
-      <c r="K44" s="44"/>
-      <c r="L44" s="44"/>
-      <c r="M44" s="44"/>
-      <c r="N44" s="44"/>
-      <c r="O44" s="44"/>
-      <c r="P44" s="44"/>
-      <c r="Q44" s="44"/>
-      <c r="R44" s="44"/>
-      <c r="S44" s="44"/>
-      <c r="T44" s="44"/>
-      <c r="U44" s="44"/>
-      <c r="V44" s="44"/>
-      <c r="W44" s="44"/>
-      <c r="X44" s="45"/>
-    </row>
-    <row r="45" spans="1:24" ht="19.149999999999999" customHeight="1">
-      <c r="A45" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" s="58"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="58"/>
-      <c r="I45" s="58"/>
-      <c r="J45" s="58"/>
-      <c r="K45" s="58"/>
-      <c r="L45" s="58"/>
-      <c r="M45" s="58"/>
-      <c r="N45" s="58"/>
-      <c r="O45" s="58"/>
-      <c r="P45" s="58"/>
-      <c r="Q45" s="58"/>
-      <c r="R45" s="58"/>
-      <c r="S45" s="58"/>
-      <c r="T45" s="58"/>
-      <c r="U45" s="58"/>
-      <c r="V45" s="58"/>
-      <c r="W45" s="58"/>
-      <c r="X45" s="59"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="19"/>
+      <c r="S45" s="19"/>
+      <c r="T45" s="19"/>
+      <c r="U45" s="19"/>
+      <c r="V45" s="19"/>
+      <c r="W45" s="19"/>
+      <c r="X45" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="G1:Q3"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="A9:C10"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="A15:X15"/>
+    <mergeCell ref="A16:X16"/>
+    <mergeCell ref="A17:X17"/>
+    <mergeCell ref="A18:X18"/>
+    <mergeCell ref="A19:X19"/>
+    <mergeCell ref="A20:X20"/>
+    <mergeCell ref="A21:X21"/>
+    <mergeCell ref="A22:X22"/>
+    <mergeCell ref="A24:X24"/>
+    <mergeCell ref="A25:X25"/>
+    <mergeCell ref="A23:X23"/>
+    <mergeCell ref="A42:X42"/>
+    <mergeCell ref="A43:X43"/>
+    <mergeCell ref="A44:X44"/>
+    <mergeCell ref="A27:X32"/>
+    <mergeCell ref="A38:X38"/>
+    <mergeCell ref="A39:X39"/>
+    <mergeCell ref="A33:J33"/>
     <mergeCell ref="A26:J26"/>
     <mergeCell ref="A45:X45"/>
     <mergeCell ref="A14:X14"/>
@@ -3158,30 +3188,6 @@
     <mergeCell ref="A37:X37"/>
     <mergeCell ref="A40:X40"/>
     <mergeCell ref="A41:X41"/>
-    <mergeCell ref="A42:X42"/>
-    <mergeCell ref="A43:X43"/>
-    <mergeCell ref="A44:X44"/>
-    <mergeCell ref="A27:X32"/>
-    <mergeCell ref="A38:X38"/>
-    <mergeCell ref="A39:X39"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A20:X20"/>
-    <mergeCell ref="A21:X21"/>
-    <mergeCell ref="A22:X22"/>
-    <mergeCell ref="A24:X24"/>
-    <mergeCell ref="A25:X25"/>
-    <mergeCell ref="A23:X23"/>
-    <mergeCell ref="A15:X15"/>
-    <mergeCell ref="A16:X16"/>
-    <mergeCell ref="A17:X17"/>
-    <mergeCell ref="A18:X18"/>
-    <mergeCell ref="A19:X19"/>
-    <mergeCell ref="G1:Q3"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="A9:C10"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="A1:C2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>
